--- a/Code/Results/Cases/Case_1_162/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_162/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1501157736836802</v>
+        <v>0.04712155826069875</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02918364322792399</v>
+        <v>0.03749071308083529</v>
       </c>
       <c r="E2">
-        <v>0.1102814584050265</v>
+        <v>0.1171343112676517</v>
       </c>
       <c r="F2">
-        <v>2.768897310973827</v>
+        <v>3.62692846977319</v>
       </c>
       <c r="G2">
-        <v>0.0008125677847698013</v>
+        <v>0.00258229471374426</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3978399453533292</v>
+        <v>0.7307442631768311</v>
       </c>
       <c r="J2">
-        <v>0.2298713472965517</v>
+        <v>0.2319293090669419</v>
       </c>
       <c r="K2">
-        <v>4.64849083145242</v>
+        <v>2.87563779270198</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.143518438052837</v>
+        <v>2.247421581053047</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1314202128940423</v>
+        <v>0.04112866080940591</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02543254872765743</v>
+        <v>0.03671984399024097</v>
       </c>
       <c r="E3">
-        <v>0.09771671525481551</v>
+        <v>0.1148255713462412</v>
       </c>
       <c r="F3">
-        <v>2.548219888450276</v>
+        <v>3.596872982392142</v>
       </c>
       <c r="G3">
-        <v>0.0008221374635433452</v>
+        <v>0.002588201780499905</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4010275605319116</v>
+        <v>0.7347034126563621</v>
       </c>
       <c r="J3">
-        <v>0.2048796027433966</v>
+        <v>0.2273828962592361</v>
       </c>
       <c r="K3">
-        <v>4.036495032587197</v>
+        <v>2.737902908737397</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.190829013239444</v>
+        <v>2.266419069499172</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1199083339528499</v>
+        <v>0.03744387610867506</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02314786178884276</v>
+        <v>0.03626107055945837</v>
       </c>
       <c r="E4">
-        <v>0.0901907225320322</v>
+        <v>0.1134734875882231</v>
       </c>
       <c r="F4">
-        <v>2.419114006734489</v>
+        <v>3.580478423878503</v>
       </c>
       <c r="G4">
-        <v>0.000828157562651337</v>
+        <v>0.002592017461929164</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4036766503856626</v>
+        <v>0.7374236260298979</v>
       </c>
       <c r="J4">
-        <v>0.190015553185745</v>
+        <v>0.2247328354698439</v>
       </c>
       <c r="K4">
-        <v>3.668761386330118</v>
+        <v>2.655144178472028</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.221617308851542</v>
+        <v>2.278794512233077</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1152083620981585</v>
+        <v>0.03594115326985303</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02222078087554991</v>
+        <v>0.03607779353138696</v>
       </c>
       <c r="E5">
-        <v>0.08716596163193557</v>
+        <v>0.1129389259826468</v>
       </c>
       <c r="F5">
-        <v>2.367955210865432</v>
+        <v>3.574313417647332</v>
       </c>
       <c r="G5">
-        <v>0.0008306492460472883</v>
+        <v>0.002593620008497138</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4049212689026795</v>
+        <v>0.7386047821500021</v>
       </c>
       <c r="J5">
-        <v>0.1840659259613702</v>
+        <v>0.2236883131504968</v>
       </c>
       <c r="K5">
-        <v>3.520661008043305</v>
+        <v>2.621871599257531</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.234581903086863</v>
+        <v>2.284016057074517</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1144273892699772</v>
+        <v>0.03569156251328565</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02206705893398109</v>
+        <v>0.0360475831874254</v>
       </c>
       <c r="E6">
-        <v>0.08666610085312954</v>
+        <v>0.1128511530896432</v>
       </c>
       <c r="F6">
-        <v>2.359543843751496</v>
+        <v>3.573320824836756</v>
       </c>
       <c r="G6">
-        <v>0.0008310653699169631</v>
+        <v>0.002593888991503633</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4051376617043623</v>
+        <v>0.7388052971835535</v>
       </c>
       <c r="J6">
-        <v>0.183084126118537</v>
+        <v>0.223517004085835</v>
       </c>
       <c r="K6">
-        <v>3.496167680840585</v>
+        <v>2.616373938997697</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.236759386424779</v>
+        <v>2.284893859601745</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1198449847712411</v>
+        <v>0.0374236142988309</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02313534374878401</v>
+        <v>0.03625858390687853</v>
       </c>
       <c r="E7">
-        <v>0.09014976561575949</v>
+        <v>0.113466211862729</v>
       </c>
       <c r="F7">
-        <v>2.418418372033784</v>
+        <v>3.58039319422484</v>
       </c>
       <c r="G7">
-        <v>0.0008281910079957831</v>
+        <v>0.002592038881304178</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4036927785148983</v>
+        <v>0.7374392615007608</v>
       </c>
       <c r="J7">
-        <v>0.1899348955443472</v>
+        <v>0.2247186055699402</v>
       </c>
       <c r="K7">
-        <v>3.666757284482117</v>
+        <v>2.654693625703715</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.221790485175333</v>
+        <v>2.27886420970755</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1436759806146739</v>
+        <v>0.04505635486707149</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02788597865218634</v>
+        <v>0.03722191041453726</v>
       </c>
       <c r="E8">
-        <v>0.1059065747744938</v>
+        <v>0.1163246364571577</v>
       </c>
       <c r="F8">
-        <v>2.691383840810957</v>
+        <v>3.616136628722529</v>
       </c>
       <c r="G8">
-        <v>0.0008158388295515772</v>
+        <v>0.00258429240471747</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3987898556207199</v>
+        <v>0.7320492803848033</v>
       </c>
       <c r="J8">
-        <v>0.2211459216805167</v>
+        <v>0.2303322412079751</v>
       </c>
       <c r="K8">
-        <v>4.43563869957228</v>
+        <v>2.827768975093136</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.159457951462862</v>
+        <v>2.253824178704683</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1901787400047112</v>
+        <v>0.0599778826433095</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03738499820349261</v>
+        <v>0.03922566229568503</v>
       </c>
       <c r="E9">
-        <v>0.1385743525735705</v>
+        <v>0.1224521667354637</v>
       </c>
       <c r="F9">
-        <v>3.285191830959974</v>
+        <v>3.702671252880009</v>
       </c>
       <c r="G9">
-        <v>0.0007926519341894256</v>
+        <v>0.002570591183748227</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3951072499004091</v>
+        <v>0.7237793448119945</v>
       </c>
       <c r="J9">
-        <v>0.2868446797862845</v>
+        <v>0.2424716202640695</v>
       </c>
       <c r="K9">
-        <v>6.020701517952091</v>
+        <v>3.181702885845425</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.051993555725886</v>
+        <v>2.210375083417212</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2242529181673802</v>
+        <v>0.07090606800396415</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04453381278808877</v>
+        <v>0.04076697340690316</v>
       </c>
       <c r="E10">
-        <v>0.1640840914559121</v>
+        <v>0.1272765922584114</v>
       </c>
       <c r="F10">
-        <v>3.769578355301576</v>
+        <v>3.776423052490031</v>
       </c>
       <c r="G10">
-        <v>0.0007760753420031595</v>
+        <v>0.002561422050634579</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3967078993331796</v>
+        <v>0.7191120078905087</v>
       </c>
       <c r="J10">
-        <v>0.3389328736294743</v>
+        <v>0.2520933448739981</v>
       </c>
       <c r="K10">
-        <v>7.253985898254086</v>
+        <v>3.45085812704076</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9835718583527324</v>
+        <v>2.181918199307873</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2397463320241258</v>
+        <v>0.07586876236537421</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04783834093664296</v>
+        <v>0.0414830335590608</v>
       </c>
       <c r="E11">
-        <v>0.1761304558037438</v>
+        <v>0.1295423566324203</v>
       </c>
       <c r="F11">
-        <v>4.003683835350358</v>
+        <v>3.812218152760181</v>
       </c>
       <c r="G11">
-        <v>0.0007685885338584947</v>
+        <v>0.00255744324178289</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3985499012224736</v>
+        <v>0.7172960478903434</v>
       </c>
       <c r="J11">
-        <v>0.3637447464937082</v>
+        <v>0.256626178740234</v>
       </c>
       <c r="K11">
-        <v>7.835709350039792</v>
+        <v>3.575343253676579</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9551364057211487</v>
+        <v>2.169728869911239</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2456132826543183</v>
+        <v>0.07774663937131265</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04909874161378269</v>
+        <v>0.04175631590188544</v>
       </c>
       <c r="E12">
-        <v>0.1807668344093187</v>
+        <v>0.130410636432309</v>
       </c>
       <c r="F12">
-        <v>4.094637926835247</v>
+        <v>3.82609827129653</v>
       </c>
       <c r="G12">
-        <v>0.0007657567925392073</v>
+        <v>0.002555964039822513</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.399425005707613</v>
+        <v>0.7166526927366021</v>
       </c>
       <c r="J12">
-        <v>0.3733292491524622</v>
+        <v>0.2583652842601936</v>
       </c>
       <c r="K12">
-        <v>8.059537577386322</v>
+        <v>3.622780883032817</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9447956926046572</v>
+        <v>2.165222154901699</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2443497168729749</v>
+        <v>0.07734226908647202</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04882686301860417</v>
+        <v>0.04169736539344626</v>
       </c>
       <c r="E13">
-        <v>0.1797647898036345</v>
+        <v>0.1302231785057799</v>
       </c>
       <c r="F13">
-        <v>4.074941156700589</v>
+        <v>3.823094432352462</v>
       </c>
       <c r="G13">
-        <v>0.0007663665872884547</v>
+        <v>0.002556281392346597</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.399228334763194</v>
+        <v>0.7167892780181546</v>
       </c>
       <c r="J13">
-        <v>0.371256161702064</v>
+        <v>0.2579897274142127</v>
       </c>
       <c r="K13">
-        <v>8.011164639497849</v>
+        <v>3.612551035021625</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9470030413633452</v>
+        <v>2.166187896560878</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2402290052138483</v>
+        <v>0.07602328511536882</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04794184412030233</v>
+        <v>0.04150547415792261</v>
       </c>
       <c r="E14">
-        <v>0.176510326750261</v>
+        <v>0.1296135840850638</v>
       </c>
       <c r="F14">
-        <v>4.011118472564675</v>
+        <v>3.813353544902554</v>
       </c>
       <c r="G14">
-        <v>0.0007683555253147124</v>
+        <v>0.00255732099692807</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3986182291785596</v>
+        <v>0.7172422298980621</v>
       </c>
       <c r="J14">
-        <v>0.3645293083514503</v>
+        <v>0.256768801465455</v>
       </c>
       <c r="K14">
-        <v>7.854049278768173</v>
+        <v>3.579239985657182</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9542768543018951</v>
+        <v>2.169355910350433</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2377049710419783</v>
+        <v>0.07521518413676631</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04740097116543751</v>
+        <v>0.04138821156119832</v>
       </c>
       <c r="E15">
-        <v>0.1745269598855188</v>
+        <v>0.1292415309525481</v>
       </c>
       <c r="F15">
-        <v>3.972335735425531</v>
+        <v>3.807429406323934</v>
       </c>
       <c r="G15">
-        <v>0.0007695741013389403</v>
+        <v>0.002557961359472719</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.398268206180056</v>
+        <v>0.7175254502829702</v>
       </c>
       <c r="J15">
-        <v>0.3604344142647022</v>
+        <v>0.2560239010329326</v>
       </c>
       <c r="K15">
-        <v>7.758291207317654</v>
+        <v>3.558874902568107</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9587892095468789</v>
+        <v>2.171310633732141</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2232403237597111</v>
+        <v>0.07058155833856006</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04431903346385724</v>
+        <v>0.04072047565712467</v>
       </c>
       <c r="E16">
-        <v>0.1633066391435136</v>
+        <v>0.1271299550928902</v>
       </c>
       <c r="F16">
-        <v>3.754582497908302</v>
+        <v>3.774129143326149</v>
       </c>
       <c r="G16">
-        <v>0.0007765653463280211</v>
+        <v>0.00256168593043007</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3966113676350531</v>
+        <v>0.7192368785207677</v>
       </c>
       <c r="J16">
-        <v>0.3373361434552038</v>
+        <v>0.2518002674646453</v>
       </c>
       <c r="K16">
-        <v>7.216431774435591</v>
+        <v>3.442764200529325</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9854876235997665</v>
+        <v>2.182730046771724</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2143655640745266</v>
+        <v>0.06773666984432225</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04244280710744874</v>
+        <v>0.04031464706141463</v>
       </c>
       <c r="E17">
-        <v>0.1565439204973202</v>
+        <v>0.1258528255597327</v>
       </c>
       <c r="F17">
-        <v>3.624737334073842</v>
+        <v>3.754277251288357</v>
       </c>
       <c r="G17">
-        <v>0.0007808651348455651</v>
+        <v>0.002564019964700516</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3958918867571199</v>
+        <v>0.7203655660244728</v>
       </c>
       <c r="J17">
-        <v>0.3234708585876547</v>
+        <v>0.2492492711419345</v>
       </c>
       <c r="K17">
-        <v>6.889695318619033</v>
+        <v>3.372060465889945</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.002582050707588</v>
+        <v>2.189929380688667</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2092603068051915</v>
+        <v>0.06609956554437701</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04136849055093705</v>
+        <v>0.04008262964060805</v>
       </c>
       <c r="E18">
-        <v>0.1526950153396456</v>
+        <v>0.1251249439334785</v>
       </c>
       <c r="F18">
-        <v>3.551326404199756</v>
+        <v>3.743070131670748</v>
       </c>
       <c r="G18">
-        <v>0.0007833436385810418</v>
+        <v>0.002565380546935891</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3955817298681126</v>
+        <v>0.7210436677777672</v>
       </c>
       <c r="J18">
-        <v>0.3155990997824887</v>
+        <v>0.2477966634786384</v>
       </c>
       <c r="K18">
-        <v>6.703674560189484</v>
+        <v>3.331585809656076</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.012664756183327</v>
+        <v>2.194141365143224</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.207531601326636</v>
+        <v>0.06554513746246471</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04100553450611955</v>
+        <v>0.04000431430452522</v>
       </c>
       <c r="E19">
-        <v>0.1513985422705844</v>
+        <v>0.1248796428934185</v>
       </c>
       <c r="F19">
-        <v>3.526680170301148</v>
+        <v>3.73931178697859</v>
       </c>
       <c r="G19">
-        <v>0.0007841838650719864</v>
+        <v>0.002565844331899619</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3954940292658939</v>
+        <v>0.7212782228786629</v>
       </c>
       <c r="J19">
-        <v>0.3129507893200554</v>
+        <v>0.2473073467683093</v>
       </c>
       <c r="K19">
-        <v>6.641003217018124</v>
+        <v>3.317914695182651</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.01612046768269</v>
+        <v>2.195579672339861</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2153103663346627</v>
+        <v>0.06803959695052697</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04264202362467273</v>
+        <v>0.04035770298534658</v>
       </c>
       <c r="E20">
-        <v>0.1572595221010573</v>
+        <v>0.1259880854218096</v>
       </c>
       <c r="F20">
-        <v>3.638425667599051</v>
+        <v>3.756368646814849</v>
       </c>
       <c r="G20">
-        <v>0.0007804068881715575</v>
+        <v>0.002563769629721158</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3959576288263094</v>
+        <v>0.7202424222501094</v>
       </c>
       <c r="J20">
-        <v>0.3249359718085429</v>
+        <v>0.2495193105291662</v>
       </c>
       <c r="K20">
-        <v>6.924275532090462</v>
+        <v>3.379567073973533</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.000736126658779</v>
+        <v>2.18915563578193</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2414393519834874</v>
+        <v>0.07641074154835792</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04820153697713181</v>
+        <v>0.04156177971091779</v>
       </c>
       <c r="E21">
-        <v>0.1774641172136313</v>
+        <v>0.1297923571621666</v>
       </c>
       <c r="F21">
-        <v>4.029799379620016</v>
+        <v>3.816205831535257</v>
       </c>
       <c r="G21">
-        <v>0.0007677712736564492</v>
+        <v>0.002557014895167452</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3987924615881937</v>
+        <v>0.7171079833618847</v>
       </c>
       <c r="J21">
-        <v>0.3664997777788699</v>
+        <v>0.2571268014508092</v>
       </c>
       <c r="K21">
-        <v>7.900096775651434</v>
+        <v>3.589016135545535</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9521284129309322</v>
+        <v>2.168422422969428</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2585162553832703</v>
+        <v>0.08187361026136841</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05188860805768769</v>
+        <v>0.04236109677405153</v>
       </c>
       <c r="E22">
-        <v>0.1911107724056009</v>
+        <v>0.1323386402147477</v>
       </c>
       <c r="F22">
-        <v>4.299200844317994</v>
+        <v>3.857210110998551</v>
       </c>
       <c r="G22">
-        <v>0.0007595301363801412</v>
+        <v>0.002552760423443166</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4016901959179009</v>
+        <v>0.7153177775114514</v>
       </c>
       <c r="J22">
-        <v>0.394780981481432</v>
+        <v>0.2622306805655938</v>
       </c>
       <c r="K22">
-        <v>8.558830136973086</v>
+        <v>3.727640886175493</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.922873848816181</v>
+        <v>2.155508307133303</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2494016448094811</v>
+        <v>0.07895877092067849</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04991528573243897</v>
+        <v>0.04193335900810524</v>
       </c>
       <c r="E23">
-        <v>0.1837827232521647</v>
+        <v>0.1309741337873547</v>
       </c>
       <c r="F23">
-        <v>4.154048925674971</v>
+        <v>3.835150934702199</v>
       </c>
       <c r="G23">
-        <v>0.0007639286747154344</v>
+        <v>0.002555016515974863</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4000415846238212</v>
+        <v>0.7162495634215063</v>
       </c>
       <c r="J23">
-        <v>0.3795740533291081</v>
+        <v>0.2594945018947925</v>
       </c>
       <c r="K23">
-        <v>8.205120804511807</v>
+        <v>3.653493992843664</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9382425542895874</v>
+        <v>2.162342453936958</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2148832307720596</v>
+        <v>0.06790264839078475</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04255194439468113</v>
+        <v>0.04033823335471709</v>
       </c>
       <c r="E24">
-        <v>0.1569358777341066</v>
+        <v>0.1259269146415107</v>
       </c>
       <c r="F24">
-        <v>3.632233337391881</v>
+        <v>3.755422485446047</v>
       </c>
       <c r="G24">
-        <v>0.0007806140409181399</v>
+        <v>0.002563882747859619</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3959275857984039</v>
+        <v>0.720298004595449</v>
       </c>
       <c r="J24">
-        <v>0.3242732860279887</v>
+        <v>0.2493971821493659</v>
       </c>
       <c r="K24">
-        <v>6.908636176604659</v>
+        <v>3.376172795196624</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.001569877968961</v>
+        <v>2.189505218534372</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.177618325666316</v>
+        <v>0.05594683759161967</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03479010662435655</v>
+        <v>0.03867139743773151</v>
       </c>
       <c r="E25">
-        <v>0.1295063866282256</v>
+        <v>0.1207381775502157</v>
       </c>
       <c r="F25">
-        <v>3.117099534046247</v>
+        <v>3.677485644776255</v>
       </c>
       <c r="G25">
-        <v>0.000798830253112199</v>
+        <v>0.002574139388915004</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3954020320894145</v>
+        <v>0.7257697004243369</v>
       </c>
       <c r="J25">
-        <v>0.2684873517650601</v>
+        <v>0.2390651383072964</v>
       </c>
       <c r="K25">
-        <v>5.58156541918288</v>
+        <v>3.08437187981508</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.079338549920067</v>
+        <v>2.221522036067384</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_162/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_162/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04712155826069875</v>
+        <v>0.1501157736838081</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03749071308083529</v>
+        <v>0.02918364322781741</v>
       </c>
       <c r="E2">
-        <v>0.1171343112676517</v>
+        <v>0.1102814584049874</v>
       </c>
       <c r="F2">
-        <v>3.62692846977319</v>
+        <v>2.768897310973827</v>
       </c>
       <c r="G2">
-        <v>0.00258229471374426</v>
+        <v>0.000812567784768294</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7307442631768311</v>
+        <v>0.3978399453533257</v>
       </c>
       <c r="J2">
-        <v>0.2319293090669419</v>
+        <v>0.2298713472965801</v>
       </c>
       <c r="K2">
-        <v>2.87563779270198</v>
+        <v>4.648490831452534</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.247421581053047</v>
+        <v>1.143518438052809</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04112866080940591</v>
+        <v>0.1314202128938717</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03671984399024097</v>
+        <v>0.02543254872775691</v>
       </c>
       <c r="E3">
-        <v>0.1148255713462412</v>
+        <v>0.09771671525480841</v>
       </c>
       <c r="F3">
-        <v>3.596872982392142</v>
+        <v>2.548219888450262</v>
       </c>
       <c r="G3">
-        <v>0.002588201780499905</v>
+        <v>0.000822137463431108</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7347034126563621</v>
+        <v>0.401027560531908</v>
       </c>
       <c r="J3">
-        <v>0.2273828962592361</v>
+        <v>0.204879602743361</v>
       </c>
       <c r="K3">
-        <v>2.737902908737397</v>
+        <v>4.036495032587311</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.266419069499172</v>
+        <v>1.190829013239423</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03744387610867506</v>
+        <v>0.1199083339526226</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03626107055945837</v>
+        <v>0.02314786178885697</v>
       </c>
       <c r="E4">
-        <v>0.1134734875882231</v>
+        <v>0.09019072253197535</v>
       </c>
       <c r="F4">
-        <v>3.580478423878503</v>
+        <v>2.419114006734489</v>
       </c>
       <c r="G4">
-        <v>0.002592017461929164</v>
+        <v>0.0008281575626022485</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7374236260298979</v>
+        <v>0.4036766503856661</v>
       </c>
       <c r="J4">
-        <v>0.2247328354698439</v>
+        <v>0.1900155531856456</v>
       </c>
       <c r="K4">
-        <v>2.655144178472028</v>
+        <v>3.668761386330175</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.278794512233077</v>
+        <v>1.221617308851549</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03594115326985303</v>
+        <v>0.1152083620981514</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03607779353138696</v>
+        <v>0.0222207808755357</v>
       </c>
       <c r="E5">
-        <v>0.1129389259826468</v>
+        <v>0.08716596163193202</v>
       </c>
       <c r="F5">
-        <v>3.574313417647332</v>
+        <v>2.367955210865432</v>
       </c>
       <c r="G5">
-        <v>0.002593620008497138</v>
+        <v>0.0008306492461060451</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7386047821500021</v>
+        <v>0.4049212689026795</v>
       </c>
       <c r="J5">
-        <v>0.2236883131504968</v>
+        <v>0.1840659259612991</v>
       </c>
       <c r="K5">
-        <v>2.621871599257531</v>
+        <v>3.520661008043362</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.284016057074517</v>
+        <v>1.234581903086919</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03569156251328565</v>
+        <v>0.1144273892701335</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0360475831874254</v>
+        <v>0.02206705893388516</v>
       </c>
       <c r="E6">
-        <v>0.1128511530896432</v>
+        <v>0.08666610085316151</v>
       </c>
       <c r="F6">
-        <v>3.573320824836756</v>
+        <v>2.359543843751482</v>
       </c>
       <c r="G6">
-        <v>0.002593888991503633</v>
+        <v>0.0008310653699763535</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7388052971835535</v>
+        <v>0.4051376617043445</v>
       </c>
       <c r="J6">
-        <v>0.223517004085835</v>
+        <v>0.183084126118473</v>
       </c>
       <c r="K6">
-        <v>2.616373938997697</v>
+        <v>3.496167680840642</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.284893859601745</v>
+        <v>1.236759386424758</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0374236142988309</v>
+        <v>0.1198449847711061</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03625858390687853</v>
+        <v>0.0231353437487769</v>
       </c>
       <c r="E7">
-        <v>0.113466211862729</v>
+        <v>0.09014976561575949</v>
       </c>
       <c r="F7">
-        <v>3.58039319422484</v>
+        <v>2.418418372033756</v>
       </c>
       <c r="G7">
-        <v>0.002592038881304178</v>
+        <v>0.0008281910079437403</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7374392615007608</v>
+        <v>0.4036927785148983</v>
       </c>
       <c r="J7">
-        <v>0.2247186055699402</v>
+        <v>0.1899348955443756</v>
       </c>
       <c r="K7">
-        <v>2.654693625703715</v>
+        <v>3.66675728448206</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.27886420970755</v>
+        <v>1.221790485175269</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04505635486707149</v>
+        <v>0.1436759806148018</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03722191041453726</v>
+        <v>0.02788597865196607</v>
       </c>
       <c r="E8">
-        <v>0.1163246364571577</v>
+        <v>0.1059065747745258</v>
       </c>
       <c r="F8">
-        <v>3.616136628722529</v>
+        <v>2.691383840810957</v>
       </c>
       <c r="G8">
-        <v>0.00258429240471747</v>
+        <v>0.0008158388297228993</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7320492803848033</v>
+        <v>0.3987898556207057</v>
       </c>
       <c r="J8">
-        <v>0.2303322412079751</v>
+        <v>0.2211459216805025</v>
       </c>
       <c r="K8">
-        <v>2.827768975093136</v>
+        <v>4.435638699572223</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.253824178704683</v>
+        <v>1.159457951462784</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0599778826433095</v>
+        <v>0.1901787400045976</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03922566229568503</v>
+        <v>0.03738499820337182</v>
       </c>
       <c r="E9">
-        <v>0.1224521667354637</v>
+        <v>0.138574352573535</v>
       </c>
       <c r="F9">
-        <v>3.702671252880009</v>
+        <v>3.285191830959974</v>
       </c>
       <c r="G9">
-        <v>0.002570591183748227</v>
+        <v>0.000792651934246838</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7237793448119945</v>
+        <v>0.3951072499003949</v>
       </c>
       <c r="J9">
-        <v>0.2424716202640695</v>
+        <v>0.2868446797863271</v>
       </c>
       <c r="K9">
-        <v>3.181702885845425</v>
+        <v>6.020701517952034</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.210375083417212</v>
+        <v>1.051993555725886</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07090606800396415</v>
+        <v>0.224252918167366</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04076697340690316</v>
+        <v>0.04453381278796797</v>
       </c>
       <c r="E10">
-        <v>0.1272765922584114</v>
+        <v>0.1640840914559121</v>
       </c>
       <c r="F10">
-        <v>3.776423052490031</v>
+        <v>3.769578355301547</v>
       </c>
       <c r="G10">
-        <v>0.002561422050634579</v>
+        <v>0.0007760753419475129</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7191120078905087</v>
+        <v>0.3967078993331796</v>
       </c>
       <c r="J10">
-        <v>0.2520933448739981</v>
+        <v>0.3389328736294743</v>
       </c>
       <c r="K10">
-        <v>3.45085812704076</v>
+        <v>7.25398589825403</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.181918199307873</v>
+        <v>0.9835718583526756</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.07586876236537421</v>
+        <v>0.2397463320241116</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0414830335590608</v>
+        <v>0.04783834093624506</v>
       </c>
       <c r="E11">
-        <v>0.1295423566324203</v>
+        <v>0.1761304558037367</v>
       </c>
       <c r="F11">
-        <v>3.812218152760181</v>
+        <v>4.003683835350358</v>
       </c>
       <c r="G11">
-        <v>0.00255744324178289</v>
+        <v>0.0007685885338587817</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7172960478903434</v>
+        <v>0.3985499012224736</v>
       </c>
       <c r="J11">
-        <v>0.256626178740234</v>
+        <v>0.363744746493694</v>
       </c>
       <c r="K11">
-        <v>3.575343253676579</v>
+        <v>7.835709350039792</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.169728869911239</v>
+        <v>0.9551364057211487</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.07774663937131265</v>
+        <v>0.2456132826544462</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04175631590188544</v>
+        <v>0.04909874161401007</v>
       </c>
       <c r="E12">
-        <v>0.130410636432309</v>
+        <v>0.1807668344093116</v>
       </c>
       <c r="F12">
-        <v>3.82609827129653</v>
+        <v>4.094637926835247</v>
       </c>
       <c r="G12">
-        <v>0.002555964039822513</v>
+        <v>0.0007657567925383817</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7166526927366021</v>
+        <v>0.3994250057075988</v>
       </c>
       <c r="J12">
-        <v>0.2583652842601936</v>
+        <v>0.3733292491525901</v>
       </c>
       <c r="K12">
-        <v>3.622780883032817</v>
+        <v>8.059537577386266</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.165222154901699</v>
+        <v>0.9447956926046572</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07734226908647202</v>
+        <v>0.2443497168729607</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04169736539344626</v>
+        <v>0.0488268630185118</v>
       </c>
       <c r="E13">
-        <v>0.1302231785057799</v>
+        <v>0.1797647898036345</v>
       </c>
       <c r="F13">
-        <v>3.823094432352462</v>
+        <v>4.074941156700589</v>
       </c>
       <c r="G13">
-        <v>0.002556281392346597</v>
+        <v>0.0007663665872877074</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7167892780181546</v>
+        <v>0.399228334763194</v>
       </c>
       <c r="J13">
-        <v>0.2579897274142127</v>
+        <v>0.3712561617019361</v>
       </c>
       <c r="K13">
-        <v>3.612551035021625</v>
+        <v>8.011164639497849</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.166187896560878</v>
+        <v>0.947003041363331</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.07602328511536882</v>
+        <v>0.2402290052138483</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04150547415792261</v>
+        <v>0.04794184412016023</v>
       </c>
       <c r="E14">
-        <v>0.1296135840850638</v>
+        <v>0.1765103267502539</v>
       </c>
       <c r="F14">
-        <v>3.813353544902554</v>
+        <v>4.011118472564675</v>
       </c>
       <c r="G14">
-        <v>0.00255732099692807</v>
+        <v>0.0007683555253130643</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7172422298980621</v>
+        <v>0.3986182291785667</v>
       </c>
       <c r="J14">
-        <v>0.256768801465455</v>
+        <v>0.3645293083513224</v>
       </c>
       <c r="K14">
-        <v>3.579239985657182</v>
+        <v>7.854049278768287</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.169355910350433</v>
+        <v>0.9542768543018809</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.07521518413676631</v>
+        <v>0.2377049710417936</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04138821156119832</v>
+        <v>0.04740097116570041</v>
       </c>
       <c r="E15">
-        <v>0.1292415309525481</v>
+        <v>0.1745269598855188</v>
       </c>
       <c r="F15">
-        <v>3.807429406323934</v>
+        <v>3.97233573542556</v>
       </c>
       <c r="G15">
-        <v>0.002557961359472719</v>
+        <v>0.0007695741012699984</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7175254502829702</v>
+        <v>0.3982682061800489</v>
       </c>
       <c r="J15">
-        <v>0.2560239010329326</v>
+        <v>0.360434414264617</v>
       </c>
       <c r="K15">
-        <v>3.558874902568107</v>
+        <v>7.758291207317711</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.171310633732141</v>
+        <v>0.9587892095468504</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.07058155833856006</v>
+        <v>0.2232403237595548</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04072047565712467</v>
+        <v>0.04431903346361565</v>
       </c>
       <c r="E16">
-        <v>0.1271299550928902</v>
+        <v>0.1633066391435136</v>
       </c>
       <c r="F16">
-        <v>3.774129143326149</v>
+        <v>3.754582497908302</v>
       </c>
       <c r="G16">
-        <v>0.00256168593043007</v>
+        <v>0.0007765653462616166</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7192368785207677</v>
+        <v>0.3966113676350602</v>
       </c>
       <c r="J16">
-        <v>0.2518002674646453</v>
+        <v>0.3373361434550333</v>
       </c>
       <c r="K16">
-        <v>3.442764200529325</v>
+        <v>7.216431774435534</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.182730046771724</v>
+        <v>0.9854876235997523</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.06773666984432225</v>
+        <v>0.2143655640747113</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04031464706141463</v>
+        <v>0.04244280710719295</v>
       </c>
       <c r="E17">
-        <v>0.1258528255597327</v>
+        <v>0.1565439204973629</v>
       </c>
       <c r="F17">
-        <v>3.754277251288357</v>
+        <v>3.624737334073842</v>
       </c>
       <c r="G17">
-        <v>0.002564019964700516</v>
+        <v>0.000780865134852773</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7203655660244728</v>
+        <v>0.3958918867571271</v>
       </c>
       <c r="J17">
-        <v>0.2492492711419345</v>
+        <v>0.3234708585875836</v>
       </c>
       <c r="K17">
-        <v>3.372060465889945</v>
+        <v>6.889695318619033</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.189929380688667</v>
+        <v>1.002582050707538</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.06609956554437701</v>
+        <v>0.2092603068051915</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04008262964060805</v>
+        <v>0.04136849055096548</v>
       </c>
       <c r="E18">
-        <v>0.1251249439334785</v>
+        <v>0.152695015339674</v>
       </c>
       <c r="F18">
-        <v>3.743070131670748</v>
+        <v>3.551326404199727</v>
       </c>
       <c r="G18">
-        <v>0.002565380546935891</v>
+        <v>0.0007833436385229184</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7210436677777672</v>
+        <v>0.3955817298681126</v>
       </c>
       <c r="J18">
-        <v>0.2477966634786384</v>
+        <v>0.3155990997823608</v>
       </c>
       <c r="K18">
-        <v>3.331585809656076</v>
+        <v>6.70367456018954</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.194141365143224</v>
+        <v>1.012664756183256</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.06554513746246471</v>
+        <v>0.2075316013266928</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04000431430452522</v>
+        <v>0.04100553450597744</v>
       </c>
       <c r="E19">
-        <v>0.1248796428934185</v>
+        <v>0.1513985422705773</v>
       </c>
       <c r="F19">
-        <v>3.73931178697859</v>
+        <v>3.526680170301148</v>
       </c>
       <c r="G19">
-        <v>0.002565844331899619</v>
+        <v>0.0007841838650776957</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7212782228786629</v>
+        <v>0.3954940292658833</v>
       </c>
       <c r="J19">
-        <v>0.2473073467683093</v>
+        <v>0.3129507893200412</v>
       </c>
       <c r="K19">
-        <v>3.317914695182651</v>
+        <v>6.641003217018067</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.195579672339861</v>
+        <v>1.01612046768264</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.06803959695052697</v>
+        <v>0.2153103663345632</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04035770298534658</v>
+        <v>0.04264202362477221</v>
       </c>
       <c r="E20">
-        <v>0.1259880854218096</v>
+        <v>0.1572595221010644</v>
       </c>
       <c r="F20">
-        <v>3.756368646814849</v>
+        <v>3.638425667599023</v>
       </c>
       <c r="G20">
-        <v>0.002563769629721158</v>
+        <v>0.0007804068881037845</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7202424222501094</v>
+        <v>0.3959576288263023</v>
       </c>
       <c r="J20">
-        <v>0.2495193105291662</v>
+        <v>0.3249359718087135</v>
       </c>
       <c r="K20">
-        <v>3.379567073973533</v>
+        <v>6.924275532090348</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.18915563578193</v>
+        <v>1.000736126658708</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.07641074154835792</v>
+        <v>0.241439351983459</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04156177971091779</v>
+        <v>0.04820153697748708</v>
       </c>
       <c r="E21">
-        <v>0.1297923571621666</v>
+        <v>0.1774641172136739</v>
       </c>
       <c r="F21">
-        <v>3.816205831535257</v>
+        <v>4.029799379620016</v>
       </c>
       <c r="G21">
-        <v>0.002557014895167452</v>
+        <v>0.0007677712735858687</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7171079833618847</v>
+        <v>0.3987924615882008</v>
       </c>
       <c r="J21">
-        <v>0.2571268014508092</v>
+        <v>0.3664997777791257</v>
       </c>
       <c r="K21">
-        <v>3.589016135545535</v>
+        <v>7.900096775651548</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.168422422969428</v>
+        <v>0.952128412930918</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.08187361026136841</v>
+        <v>0.2585162553830145</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04236109677405153</v>
+        <v>0.05188860805767348</v>
       </c>
       <c r="E22">
-        <v>0.1323386402147477</v>
+        <v>0.1911107724056009</v>
       </c>
       <c r="F22">
-        <v>3.857210110998551</v>
+        <v>4.299200844318023</v>
       </c>
       <c r="G22">
-        <v>0.002552760423443166</v>
+        <v>0.0007595301363937367</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7153177775114514</v>
+        <v>0.4016901959179009</v>
       </c>
       <c r="J22">
-        <v>0.2622306805655938</v>
+        <v>0.394780981481432</v>
       </c>
       <c r="K22">
-        <v>3.727640886175493</v>
+        <v>8.558830136973029</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.155508307133303</v>
+        <v>0.9228738488161667</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.07895877092067849</v>
+        <v>0.2494016448092395</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04193335900810524</v>
+        <v>0.04991528573237503</v>
       </c>
       <c r="E23">
-        <v>0.1309741337873547</v>
+        <v>0.1837827232521363</v>
       </c>
       <c r="F23">
-        <v>3.835150934702199</v>
+        <v>4.154048925674942</v>
       </c>
       <c r="G23">
-        <v>0.002555016515974863</v>
+        <v>0.0007639286745930729</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7162495634215063</v>
+        <v>0.4000415846238283</v>
       </c>
       <c r="J23">
-        <v>0.2594945018947925</v>
+        <v>0.3795740533291223</v>
       </c>
       <c r="K23">
-        <v>3.653493992843664</v>
+        <v>8.205120804511807</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.162342453936958</v>
+        <v>0.9382425542895447</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.06790264839078475</v>
+        <v>0.2148832307718891</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04033823335471709</v>
+        <v>0.04255194439480192</v>
       </c>
       <c r="E24">
-        <v>0.1259269146415107</v>
+        <v>0.1569358777340639</v>
       </c>
       <c r="F24">
-        <v>3.755422485446047</v>
+        <v>3.632233337391853</v>
       </c>
       <c r="G24">
-        <v>0.002563882747859619</v>
+        <v>0.0007806140408631541</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.720298004595449</v>
+        <v>0.3959275857984252</v>
       </c>
       <c r="J24">
-        <v>0.2493971821493659</v>
+        <v>0.3242732860280029</v>
       </c>
       <c r="K24">
-        <v>3.376172795196624</v>
+        <v>6.908636176604489</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.189505218534372</v>
+        <v>1.00156987796899</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.05594683759161967</v>
+        <v>0.1776183256663444</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03867139743773151</v>
+        <v>0.03479010662412207</v>
       </c>
       <c r="E25">
-        <v>0.1207381775502157</v>
+        <v>0.1295063866282256</v>
       </c>
       <c r="F25">
-        <v>3.677485644776255</v>
+        <v>3.117099534046275</v>
       </c>
       <c r="G25">
-        <v>0.002574139388915004</v>
+        <v>0.0007988302531723712</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7257697004243369</v>
+        <v>0.395402032089418</v>
       </c>
       <c r="J25">
-        <v>0.2390651383072964</v>
+        <v>0.2684873517649748</v>
       </c>
       <c r="K25">
-        <v>3.08437187981508</v>
+        <v>5.581565419182823</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.221522036067384</v>
+        <v>1.079338549920074</v>
       </c>
       <c r="O25">
         <v>0</v>
